--- a/data/api_auto/uu_api/login.xlsx
+++ b/data/api_auto/uu_api/login.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29000" windowHeight="13940"/>
+    <workbookView windowWidth="29080" windowHeight="13940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="50">
   <si>
     <t>case_module</t>
   </si>
@@ -72,6 +72,111 @@
   </si>
   <si>
     <t>wait</t>
+  </si>
+  <si>
+    <t>登录</t>
+  </si>
+  <si>
+    <t>登录类型</t>
+  </si>
+  <si>
+    <t>正常流程</t>
+  </si>
+  <si>
+    <t>参数正常</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>/api/forex-user/v2/user/multiChannelLoginFailCount</t>
+  </si>
+  <si>
+    <t>application/json</t>
+  </si>
+  <si>
+    <t>{"type":"account","account":"${my_account}"}</t>
+  </si>
+  <si>
+    <t>{"$.success":true}</t>
+  </si>
+  <si>
+    <t>检查账号</t>
+  </si>
+  <si>
+    <t>/api/forex-user/v2/user/multiChannelLoginCheck</t>
+  </si>
+  <si>
+    <t>{"loginPwd":"Test#123","deviceId":"h5","type":"account","account":"${my_account}"}</t>
+  </si>
+  <si>
+    <t>{"verifyToken":"$.data[0].token"}</t>
+  </si>
+  <si>
+    <t>发送验证码</t>
+  </si>
+  <si>
+    <t>/api/forex-user/v2/user/sendCodeBeforeLogin</t>
+  </si>
+  <si>
+    <t>{"account":"${my_account}","verifyToken":"${verifyToken}","type":"login","sendType":2}</t>
+  </si>
+  <si>
+    <t>验证验证码</t>
+  </si>
+  <si>
+    <t>/api/forex-user/v2/user/verifyBeforeLogin</t>
+  </si>
+  <si>
+    <t>{"code":"751666","account":"${my_account}","checkType":3,"type":"login"}</t>
+  </si>
+  <si>
+    <t>{"emailCodeToken":"$.data"}</t>
+  </si>
+  <si>
+    <t>/api/forex-user/v2/user/loginWithPwd</t>
+  </si>
+  <si>
+    <t>{"account":"${my_account}","loginPwd":"Test#123","emailCodeToken":"${emailCodeToken}","deviceId":"h5"}</t>
+  </si>
+  <si>
+    <t>{"token":"$.data.token"}</t>
+  </si>
+  <si>
+    <t>请求数据</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>/api/forex-user/user/data</t>
+  </si>
+  <si>
+    <t>{"authorization":"${token}"}</t>
+  </si>
+  <si>
+    <t>/api/forex-balance/balance/queryBalances</t>
+  </si>
+  <si>
+    <t>/api/forex-balance/balance/v2/queryIpFiatConfig</t>
+  </si>
+  <si>
+    <t>/api/forex-setting/coin/coinInfoQueryListUsing?tenant=forex</t>
+  </si>
+  <si>
+    <t>/api/forex-balance/balance/v2/queryBalances</t>
+  </si>
+  <si>
+    <t>{"coinSymbol":"USD"}</t>
+  </si>
+  <si>
+    <t>/api/forex-user/agentUserInfo/getAgentUserInfo</t>
+  </si>
+  <si>
+    <t>/api/forex-support/support/banner/list</t>
+  </si>
+  <si>
+    <t>/api/forex-setting/setting/homepage_announcement/app/latest/v2</t>
   </si>
 </sst>
 </file>
@@ -1060,22 +1165,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
+      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
-    <col min="1" max="1" width="25.4615384615385" style="2" customWidth="1"/>
-    <col min="2" max="2" width="31.2307692307692" style="2" customWidth="1"/>
-    <col min="3" max="3" width="20.1538461538462" style="2" customWidth="1"/>
-    <col min="4" max="4" width="42.0769230769231" style="2" customWidth="1"/>
+    <col min="1" max="1" width="15.2211538461538" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.4615384615385" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.1538461538462" style="2" customWidth="1"/>
+    <col min="4" max="4" width="19.3846153846154" style="2" customWidth="1"/>
     <col min="5" max="5" width="10.5" style="2" customWidth="1"/>
     <col min="6" max="6" width="9.69230769230769" style="2" customWidth="1"/>
     <col min="7" max="7" width="68.9038461538462" style="2" customWidth="1"/>
@@ -1136,6 +1241,395 @@
         <v>14</v>
       </c>
     </row>
+    <row r="2" ht="17" spans="1:14">
+      <c r="A2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" ht="34" spans="1:14">
+      <c r="A3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" ht="34" spans="1:14">
+      <c r="A4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" ht="34" spans="1:14">
+      <c r="A5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" ht="34" spans="1:14">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" ht="17" spans="1:14">
+      <c r="A11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" ht="16" customHeight="1" spans="1:14">
+      <c r="A14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/data/api_auto/uu_api/login.xlsx
+++ b/data/api_auto/uu_api/login.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="51">
   <si>
     <t>case_module</t>
   </si>
@@ -128,10 +128,16 @@
     <t>/api/forex-user/v2/user/verifyBeforeLogin</t>
   </si>
   <si>
-    <t>{"code":"751666","account":"${my_account}","checkType":3,"type":"login"}</t>
+    <t>{"code":"function:extract_code","account":"${my_account}","checkType":3,"type":"login"}</t>
   </si>
   <si>
     <t>{"emailCodeToken":"$.data"}</t>
+  </si>
+  <si>
+    <t>SELECT content FROM `forex`.`t_notice_message_record`
+WHERE `receiver` = 
+(SELECT email FROM t_user_info WHERE account = "${my_account}")
+ORDER BY create_time DESC LIMIT 1;</t>
   </si>
   <si>
     <t>/api/forex-user/v2/user/loginWithPwd</t>
@@ -1168,11 +1174,11 @@
   <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomRight" activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1331,7 +1337,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" ht="34" spans="1:14">
+    <row r="5" ht="152" spans="1:14">
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
@@ -1358,6 +1364,9 @@
       </c>
       <c r="L5" s="3" t="s">
         <v>34</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="N5" s="2" t="s">
         <v>23</v>
@@ -1380,16 +1389,16 @@
         <v>19</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N6" s="2" t="s">
         <v>23</v>
@@ -1400,7 +1409,7 @@
         <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>17</v>
@@ -1409,13 +1418,13 @@
         <v>18</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>21</v>
@@ -1429,7 +1438,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>17</v>
@@ -1438,13 +1447,13 @@
         <v>18</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>21</v>
@@ -1458,7 +1467,7 @@
         <v>15</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>17</v>
@@ -1467,13 +1476,13 @@
         <v>18</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>21</v>
@@ -1487,7 +1496,7 @@
         <v>15</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>17</v>
@@ -1496,13 +1505,13 @@
         <v>18</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>21</v>
@@ -1516,7 +1525,7 @@
         <v>15</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>17</v>
@@ -1528,16 +1537,16 @@
         <v>19</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N11" s="2" t="s">
         <v>23</v>
@@ -1548,7 +1557,7 @@
         <v>15</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>17</v>
@@ -1557,13 +1566,13 @@
         <v>18</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>21</v>
@@ -1577,7 +1586,7 @@
         <v>15</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>17</v>
@@ -1586,13 +1595,13 @@
         <v>18</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>21</v>
@@ -1606,7 +1615,7 @@
         <v>15</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>17</v>
@@ -1615,13 +1624,13 @@
         <v>18</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>21</v>

--- a/data/api_auto/uu_api/login.xlsx
+++ b/data/api_auto/uu_api/login.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="52">
   <si>
     <t>case_module</t>
   </si>
@@ -183,6 +183,9 @@
   </si>
   <si>
     <t>/api/forex-setting/setting/homepage_announcement/app/latest/v2</t>
+  </si>
+  <si>
+    <t>{"authorization":"${token}","accept-language":"zh-CN"}</t>
   </si>
 </sst>
 </file>
@@ -809,7 +812,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -818,6 +821,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1174,11 +1180,11 @@
   <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M5" sqref="M5"/>
+      <selection pane="bottomRight" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1228,16 +1234,16 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="6" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
@@ -1629,8 +1635,8 @@
       <c r="G14" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H14" s="2" t="s">
-        <v>42</v>
+      <c r="H14" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>21</v>

--- a/data/api_auto/uu_api/login.xlsx
+++ b/data/api_auto/uu_api/login.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29080" windowHeight="13940"/>
+    <workbookView windowWidth="28000" windowHeight="14540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -146,7 +146,7 @@
     <t>{"account":"${my_account}","loginPwd":"Test#123","emailCodeToken":"${emailCodeToken}","deviceId":"h5"}</t>
   </si>
   <si>
-    <t>{"token":"$.data.token"}</t>
+    <t>{"token":"$.data.token","my_email":"$.data.email"}</t>
   </si>
   <si>
     <t>请求数据</t>
@@ -812,7 +812,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -821,9 +821,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1180,11 +1177,11 @@
   <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G14" sqref="G14"/>
+      <selection pane="bottomRight" activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1234,16 +1231,16 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
@@ -1635,7 +1632,7 @@
       <c r="G14" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" s="3" t="s">
         <v>51</v>
       </c>
       <c r="I14" s="2" t="s">

--- a/data/api_auto/uu_api/login.xlsx
+++ b/data/api_auto/uu_api/login.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="14540"/>
+    <workbookView windowHeight="16760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="63">
   <si>
     <t>case_module</t>
   </si>
@@ -77,13 +77,13 @@
     <t>登录</t>
   </si>
   <si>
+    <t>登录正常账号</t>
+  </si>
+  <si>
+    <t>正常流程</t>
+  </si>
+  <si>
     <t>登录类型</t>
-  </si>
-  <si>
-    <t>正常流程</t>
-  </si>
-  <si>
-    <t>参数正常</t>
   </si>
   <si>
     <t>post</t>
@@ -140,6 +140,9 @@
 ORDER BY create_time DESC LIMIT 1;</t>
   </si>
   <si>
+    <t>请求登录获取token</t>
+  </si>
+  <si>
     <t>/api/forex-user/v2/user/loginWithPwd</t>
   </si>
   <si>
@@ -152,6 +155,9 @@
     <t>请求数据</t>
   </si>
   <si>
+    <t>参数正常</t>
+  </si>
+  <si>
     <t>get</t>
   </si>
   <si>
@@ -186,6 +192,36 @@
   </si>
   <si>
     <t>{"authorization":"${token}","accept-language":"zh-CN"}</t>
+  </si>
+  <si>
+    <t>登录提现账号</t>
+  </si>
+  <si>
+    <t>{"type":"account","account":"${designated_withdrawal_account}"}</t>
+  </si>
+  <si>
+    <t>{"loginPwd":"Test#123","deviceId":"h5","type":"account","account":"${designated_withdrawal_account}"}</t>
+  </si>
+  <si>
+    <t>{"account":"${designated_withdrawal_account}","verifyToken":"${verifyToken}","type":"login","sendType":2}</t>
+  </si>
+  <si>
+    <t>{"code":"function:extract_code","account":"${designated_withdrawal_account}","checkType":3,"type":"login"}</t>
+  </si>
+  <si>
+    <t>SELECT content FROM `forex`.`t_notice_message_record`
+WHERE `receiver` = 
+(SELECT email FROM t_user_info WHERE account = "${designated_withdrawal_account}")
+ORDER BY create_time DESC LIMIT 1;</t>
+  </si>
+  <si>
+    <t>请求登录获取token2</t>
+  </si>
+  <si>
+    <t>{"account":"${designated_withdrawal_account}","loginPwd":"Test#123","emailCodeToken":"${emailCodeToken}","deviceId":"h5"}</t>
+  </si>
+  <si>
+    <t>{"token2":"$.data.token","my_email2":"$.data.email"}</t>
   </si>
 </sst>
 </file>
@@ -1174,14 +1210,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K15" sqref="K15"/>
+      <selection pane="bottomRight" activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1284,13 +1320,13 @@
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>19</v>
@@ -1316,13 +1352,13 @@
         <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>19</v>
@@ -1345,13 +1381,13 @@
         <v>15</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>19</v>
@@ -1380,28 +1416,28 @@
         <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N6" s="2" t="s">
         <v>23</v>
@@ -1412,22 +1448,22 @@
         <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>21</v>
@@ -1441,22 +1477,22 @@
         <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>21</v>
@@ -1470,22 +1506,22 @@
         <v>15</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>21</v>
@@ -1499,22 +1535,22 @@
         <v>15</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>21</v>
@@ -1528,28 +1564,28 @@
         <v>15</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N11" s="2" t="s">
         <v>23</v>
@@ -1560,22 +1596,22 @@
         <v>15</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>21</v>
@@ -1589,22 +1625,22 @@
         <v>15</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>21</v>
@@ -1618,27 +1654,184 @@
         <v>15</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="N14" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" ht="34" spans="1:14">
+      <c r="A15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" ht="34" spans="1:14">
+      <c r="A16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" ht="34" spans="1:14">
+      <c r="A17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" ht="168" spans="1:14">
+      <c r="A18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" ht="34" spans="1:14">
+      <c r="A19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="N19" s="2" t="s">
         <v>23</v>
       </c>
     </row>
